--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3991.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3991.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.288700397624456</v>
+        <v>0.9106121063232422</v>
       </c>
       <c r="B1">
-        <v>2.740550592789764</v>
+        <v>1.724440097808838</v>
       </c>
       <c r="C1">
-        <v>4.663814198299833</v>
+        <v>4.722105979919434</v>
       </c>
       <c r="D1">
-        <v>3.293036275759261</v>
+        <v>4.885763645172119</v>
       </c>
       <c r="E1">
-        <v>1.31194225590421</v>
+        <v>1.685155987739563</v>
       </c>
     </row>
   </sheetData>
